--- a/target/test-classes/data/TestDataSheet.xlsx
+++ b/target/test-classes/data/TestDataSheet.xlsx
@@ -4,97 +4,99 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="3" tabRatio="752" windowHeight="3860" windowWidth="14820" xWindow="0" yWindow="2520"/>
+    <workbookView activeTab="2" tabRatio="752" windowHeight="3860" windowWidth="14820" xWindow="0" yWindow="2520"/>
   </bookViews>
   <sheets>
     <sheet name="TestCases" r:id="rId1" sheetId="4"/>
-    <sheet name="TC001_Verify_Ebay_Home_Page" r:id="rId2" sheetId="3"/>
-    <sheet name="TC002_Ebay_Invalid_SignIn" r:id="rId3" sheetId="2"/>
-    <sheet name="TC003_Ebay_register" r:id="rId4" sheetId="6"/>
+    <sheet name="TC001_Verify_techlistic_page" r:id="rId2" sheetId="3"/>
+    <sheet name="TC002_signup_Selenium_account" r:id="rId3" sheetId="5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="54">
   <si>
     <t>TS_01</t>
   </si>
   <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Action Keyword</t>
+  </si>
+  <si>
+    <t>Step Description</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Description </t>
+  </si>
+  <si>
+    <t>Run Mode</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>SelectContinentsDropdown</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>To sign up Selenium Automation Demo account</t>
+  </si>
+  <si>
+    <t>To verify that techlistic home page displayed</t>
+  </si>
+  <si>
+    <t>TC002_signup_Selenium_account</t>
+  </si>
+  <si>
+    <t>TC001_Verify_techlistic_page</t>
+  </si>
+  <si>
+    <t>Verify techlistic Home page oject</t>
+  </si>
+  <si>
+    <t>ClickOnJava</t>
+  </si>
+  <si>
     <t>TS_02</t>
   </si>
   <si>
-    <t>Steps</t>
-  </si>
-  <si>
-    <t>Action Keyword</t>
-  </si>
-  <si>
-    <t>Step Description</t>
-  </si>
-  <si>
-    <t>Test Case ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Description </t>
-  </si>
-  <si>
-    <t>Run Mode</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>TC001_Verify_Ebay_Home_Page</t>
-  </si>
-  <si>
-    <t>To verify that ebay home page displayed</t>
-  </si>
-  <si>
-    <t>Verify Home page oject</t>
-  </si>
-  <si>
-    <t>ClickShopCatagory</t>
-  </si>
-  <si>
-    <t>ClickToSignIn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Click to sign in </t>
-  </si>
-  <si>
-    <t>TC002_Ebay_Invalid_SignIn</t>
-  </si>
-  <si>
-    <t>To verify invalid sign in</t>
-  </si>
-  <si>
-    <t>test0090@gmail.com</t>
-  </si>
-  <si>
-    <t>EnterEmailID</t>
-  </si>
-  <si>
-    <t>Enter invalid Email ID</t>
+    <t>Enter First Name</t>
+  </si>
+  <si>
+    <t>EnterFirstName</t>
+  </si>
+  <si>
+    <t>Meena</t>
   </si>
   <si>
     <t>TS_03</t>
   </si>
   <si>
-    <t>Click continue button</t>
-  </si>
-  <si>
-    <t>test0099@gmail.com</t>
+    <t>Enter Last Name</t>
+  </si>
+  <si>
+    <t>EnterLastName</t>
+  </si>
+  <si>
+    <t>Rahim</t>
   </si>
   <si>
     <t>TS_04</t>
@@ -103,82 +105,79 @@
     <t>TS_05</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>ClickToContinue</t>
-  </si>
-  <si>
-    <t>TC003_Ebay_register</t>
-  </si>
-  <si>
-    <t>To register new ebay account</t>
-  </si>
-  <si>
-    <t>Click on register button</t>
-  </si>
-  <si>
-    <t>Enter First Name</t>
-  </si>
-  <si>
-    <t>EnterFirstName</t>
-  </si>
-  <si>
-    <t>EnterLastName</t>
-  </si>
-  <si>
-    <t>Meena</t>
-  </si>
-  <si>
-    <t>Rahim</t>
-  </si>
-  <si>
-    <t>Enter Last Name</t>
-  </si>
-  <si>
-    <t>Enter Email Id</t>
-  </si>
-  <si>
-    <t>EnterEmailId</t>
-  </si>
-  <si>
-    <t>Enter Password</t>
-  </si>
-  <si>
-    <t>EnterPassword</t>
-  </si>
-  <si>
-    <t>Test00992</t>
-  </si>
-  <si>
     <t>TS_06</t>
   </si>
   <si>
-    <t>Click on Create Acoount</t>
-  </si>
-  <si>
-    <t>ClickonCreateAccount</t>
-  </si>
-  <si>
-    <t>ClickOnRegister</t>
-  </si>
-  <si>
     <t>TS_07</t>
   </si>
   <si>
-    <t>Verify error text</t>
-  </si>
-  <si>
-    <t>Test0099gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Email address is invalid. Please enter a valid email address. </t>
-  </si>
-  <si>
-    <t>GetEmailErrorText</t>
-  </si>
-  <si>
-    <t>FAIL</t>
+    <t>Select Gender</t>
+  </si>
+  <si>
+    <t>SelectGender</t>
+  </si>
+  <si>
+    <t>Select year of Experience</t>
+  </si>
+  <si>
+    <t>SelectYearOfExperience</t>
+  </si>
+  <si>
+    <t>male</t>
+  </si>
+  <si>
+    <t>Enter Date</t>
+  </si>
+  <si>
+    <t>EnterDate</t>
+  </si>
+  <si>
+    <t>08-22-2021</t>
+  </si>
+  <si>
+    <t>Select Profession</t>
+  </si>
+  <si>
+    <t>Select Automation Tool</t>
+  </si>
+  <si>
+    <t>TS_08</t>
+  </si>
+  <si>
+    <t>TS_09</t>
+  </si>
+  <si>
+    <t>SelectProfession</t>
+  </si>
+  <si>
+    <t>SelectAutomationTool</t>
+  </si>
+  <si>
+    <t>Automation Tester</t>
+  </si>
+  <si>
+    <t>UFT</t>
+  </si>
+  <si>
+    <t>Select Continents</t>
+  </si>
+  <si>
+    <t>Click on Button</t>
+  </si>
+  <si>
+    <t>ClickonButton</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>TS_10</t>
+  </si>
+  <si>
+    <t>Scroll down</t>
+  </si>
+  <si>
+    <t>ScrollForButton</t>
   </si>
 </sst>
 </file>
@@ -186,7 +185,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,6 +207,13 @@
       <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF303030"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -266,7 +272,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
@@ -284,15 +290,18 @@
     <xf applyAlignment="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf applyAlignment="1" applyNumberFormat="1" applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="1"/>
     <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
+    <xf applyAlignment="1" applyBorder="1" applyProtection="1" borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle builtinId="8" name="Hyperlink" xfId="1"/>
@@ -595,10 +604,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -612,108 +621,76 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row customFormat="1" r="2" s="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="A4" s="7"/>
+      <c r="C4" s="1"/>
       <c r="D4" t="s">
-        <v>53</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="7"/>
       <c r="C5" s="1"/>
       <c r="D5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="8"/>
-      <c r="C6" s="1"/>
-      <c r="D6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="8"/>
-      <c r="C7" s="1"/>
-      <c r="D7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="8"/>
-      <c r="C8" s="1"/>
-      <c r="D8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink display="TC001_LoginTest" location="TC001_LoginTest!A1" ref="A2"/>
-    <hyperlink display="TC002_PlaceOrderTest" location="TC002_PlaceOrderTest!A1" ref="A3"/>
-  </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="A3:C3"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.7265625" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.36328125" collapsed="true"/>
     <col min="2" max="2" customWidth="true" style="3" width="53.54296875" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="28.7265625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="1" width="70.1796875" collapsed="true"/>
@@ -722,16 +699,16 @@
   <sheetData>
     <row customFormat="1" r="1" s="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -739,24 +716,12 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -766,244 +731,179 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="3" width="5.7265625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="18.6328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="17.81640625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="1" width="18.453125" collapsed="true"/>
-    <col min="5" max="16384" style="3" width="9.1796875" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" r="1" s="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customFormat="1" customHeight="1" ht="18" r="2" s="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" s="11"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="11"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink display="test321@yahoo.com" r:id="rId1" ref="F3"/>
-    <hyperlink r:id="rId2" ref="D3"/>
-    <hyperlink display="test321@yahoo.com" r:id="rId3" ref="F4"/>
-    <hyperlink display="test321@yahoo.com" r:id="rId4" ref="F5"/>
-    <hyperlink r:id="rId5" ref="D5"/>
-    <hyperlink display="test321@yahoo.com" r:id="rId6" ref="F6"/>
-  </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" r:id="rId7" verticalDpi="300"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="33.36328125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.1796875" collapsed="true"/>
+    <col min="1" max="1" customWidth="true" width="9.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.81640625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="29.54296875" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="50.90625" collapsed="true"/>
   </cols>
   <sheetData>
     <row customFormat="1" customHeight="1" ht="23.5" r="1" s="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>3</v>
-      </c>
       <c r="D1" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row customFormat="1" r="2" s="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row customFormat="1" r="3" s="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row customFormat="1" r="4" s="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D2" s="9"/>
-    </row>
-    <row customFormat="1" r="3" s="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="D4" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row customFormat="1" r="5" s="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row customFormat="1" r="4" s="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row customFormat="1" r="5" s="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>40</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row customFormat="1" r="6" s="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="10" t="s">
+    <row customFormat="1" r="6" s="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row customFormat="1" r="7" s="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row customFormat="1" r="8" s="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="9" t="s">
+      <c r="B10" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="12"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="C11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>51</v>
-      </c>
+      <c r="D11" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="test321@yahoo.com" r:id="rId1" ref="F3"/>
-    <hyperlink display="test321@yahoo.com" r:id="rId2" ref="F4"/>
-    <hyperlink display="test321@yahoo.com" r:id="rId3" ref="F5"/>
-    <hyperlink display="test321@yahoo.com" r:id="rId4" ref="F6"/>
-    <hyperlink display="Test0099!2@gmail.com" r:id="rId5" ref="D5"/>
+    <hyperlink display="test321@yahoo.com" r:id="rId1" ref="F2"/>
+    <hyperlink display="test321@yahoo.com" r:id="rId2" ref="F3"/>
+    <hyperlink display="test321@yahoo.com" r:id="rId3" ref="F4"/>
+    <hyperlink display="test321@yahoo.com" r:id="rId4" ref="F5"/>
+    <hyperlink display="Test0099!2@gmail.com" r:id="rId5" ref="D4"/>
   </hyperlinks>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>